--- a/website/csv_files/Research_Paper_Download.xlsx
+++ b/website/csv_files/Research_Paper_Download.xlsx
@@ -530,44 +530,44 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C2" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>s</t>
+          <t>dfbdbdf</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>edited ewvew`</t>
+          <t>dfbdfbdf</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>s</t>
+          <t>dbdfbdf</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>s vkjb</t>
+          <t>bdfbdf</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>s</t>
+          <t>bdfbdb</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>s</t>
+          <t>fbdfbdf</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>January</t>
+          <t>December</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
@@ -577,22 +577,22 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>s</t>
+          <t>dfbd</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>s</t>
+          <t>dfbdfb</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>s</t>
+          <t>dfbdf</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>s</t>
+          <t>dbdfb</t>
         </is>
       </c>
       <c r="P2" t="inlineStr">
@@ -607,7 +607,7 @@
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>SCIE</t>
         </is>
       </c>
       <c r="S2" t="inlineStr"/>
@@ -617,44 +617,44 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C3" t="n">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>vdskj</t>
+          <t>title</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>klsndkvnk</t>
+          <t>authores</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>nskn</t>
+          <t>journals</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>klvsn</t>
+          <t>website</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>knlcal</t>
+          <t>issn</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>klvsn</t>
+          <t>publisher</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>November</t>
+          <t>January</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
@@ -664,22 +664,22 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>nkdls</t>
+          <t>volume</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>klvwn</t>
+          <t>issue</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>nklsv</t>
+          <t>547 - 860</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>skdj</t>
+          <t>doi</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
@@ -694,10 +694,14 @@
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="S3" t="inlineStr"/>
+          <t>SCI</t>
+        </is>
+      </c>
+      <c r="S3" t="inlineStr">
+        <is>
+          <t>2.2</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
